--- a/Priming/English1.xlsx
+++ b/Priming/English1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericpelzl/Desktop/CBSLDT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericpelzl/Documents/GitHub/cbs592/Priming/psychopy/English1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E698553-A553-204E-BC6A-D461DC332506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B07855F-B592-5F42-A685-649B82426A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{A2A15FA5-529A-8846-9593-AA41033E50AE}"/>
+    <workbookView xWindow="10220" yWindow="1580" windowWidth="32780" windowHeight="24240" xr2:uid="{A2A15FA5-529A-8846-9593-AA41033E50AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{00F56B0B-6C79-6E49-BA65-DE7217D4621B}" name="English1" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/ericpelzl/Desktop/CBSLDT/English1.txt" tab="0" comma="1">
+    <textPr sourceFile="/Users/ericpelzl/Desktop/CBSLDT/English1.txt" tab="0" comma="1">
       <textFields count="3">
         <textField type="text"/>
         <textField/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="111">
   <si>
     <t>naughty</t>
   </si>
@@ -375,13 +375,16 @@
     <t>target</t>
   </si>
   <si>
-    <t>wrd</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
     <t>condition</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>nonword</t>
   </si>
 </sst>
 </file>
@@ -739,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D710693-F43C-834A-85CB-BB6590C770BC}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -757,7 +760,7 @@
         <v>106</v>
       </c>
       <c r="C1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -768,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -779,7 +782,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -790,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -801,7 +804,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -812,7 +815,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -823,7 +826,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -834,7 +837,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -845,7 +848,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -856,7 +859,7 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -867,7 +870,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -878,7 +881,7 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -889,7 +892,7 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -900,7 +903,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -911,7 +914,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -922,7 +925,7 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -933,7 +936,7 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -944,7 +947,7 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -955,7 +958,7 @@
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -966,7 +969,7 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -977,7 +980,7 @@
         <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -988,7 +991,7 @@
         <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -999,7 +1002,7 @@
         <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1010,7 +1013,7 @@
         <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1021,7 +1024,7 @@
         <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1032,7 +1035,7 @@
         <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1043,7 +1046,7 @@
         <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1054,7 +1057,7 @@
         <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1065,7 +1068,7 @@
         <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1076,7 +1079,7 @@
         <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1087,7 +1090,7 @@
         <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1098,7 +1101,7 @@
         <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1109,7 +1112,7 @@
         <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1120,7 +1123,7 @@
         <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1131,7 +1134,7 @@
         <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1142,7 +1145,7 @@
         <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1153,7 +1156,7 @@
         <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1164,7 +1167,7 @@
         <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1175,7 +1178,7 @@
         <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1186,7 +1189,7 @@
         <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1197,7 +1200,7 @@
         <v>72</v>
       </c>
       <c r="C41" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1208,7 +1211,7 @@
         <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1219,7 +1222,7 @@
         <v>76</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1230,7 +1233,7 @@
         <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1241,7 +1244,7 @@
         <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1252,7 +1255,7 @@
         <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1263,7 +1266,7 @@
         <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1274,7 +1277,7 @@
         <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1285,7 +1288,7 @@
         <v>88</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1296,7 +1299,7 @@
         <v>90</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1307,7 +1310,7 @@
         <v>92</v>
       </c>
       <c r="C51" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1318,7 +1321,7 @@
         <v>94</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -1329,7 +1332,7 @@
         <v>96</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1340,7 +1343,7 @@
         <v>98</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1351,7 +1354,7 @@
         <v>100</v>
       </c>
       <c r="C55" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1362,7 +1365,7 @@
         <v>102</v>
       </c>
       <c r="C56" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1373,7 +1376,7 @@
         <v>104</v>
       </c>
       <c r="C57" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
